--- a/biology/Zoologie/Acontias_aurantiacus/Acontias_aurantiacus.xlsx
+++ b/biology/Zoologie/Acontias_aurantiacus/Acontias_aurantiacus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acontias aurantiacus est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acontias aurantiacus est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans l'est de l'Afrique du Sud ;
 dans le Sud du Zimbabwe ;
 dans le Sud du Botswana ;
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un saurien vivipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un saurien vivipare.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (27 juin 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (27 juin 2012) :
 Acontias aurantiacus aurantiacus (Peters, 1854)
 Acontias aurantiacus bazarutoensis (Broadley, 1990)
 Acontias aurantiacus carolinensis (Broadley, 1990)
@@ -611,7 +629,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Broadley, 1968 : A review of the African genus Typhlosaurus Wiegmann (Sauria: Scincidae). Arnoldia, vol. 3, no 36, p. 1-20.
 Broadley, 1990 : The herpetofaunas of the islands off the coast of south Mocambique. Arnoldia, vol. 9, no 35, p. 469-493.
